--- a/biology/Zoologie/Conus_norpothi/Conus_norpothi.xlsx
+++ b/biology/Zoologie/Conus_norpothi/Conus_norpothi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus norpothi est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La longueur de la coquille atteint 35,3 mm.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente au large du cap des Aiguilles, en Afrique du Sud.
 </t>
@@ -576,10 +592,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus norpothi a été décrite pour la première fois en 2015 par le malacologiste allemand Felix Lorenz (d)[1] dans « Conchylia »[2],[3].
-Synonymes
-Conus (Floraconus) norpothi Lorenz, 2015 · appellation alternative
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus norpothi a été décrite pour la première fois en 2015 par le malacologiste allemand Felix Lorenz (d) dans « Conchylia »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_norpothi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_norpothi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Floraconus) norpothi Lorenz, 2015 · appellation alternative
 Conus (Sciteconus) algoensis norpothi Lorenz, 2015 · non accepté
 Conus algoensis norpothi Lorenz, 2015 · non accepté
 Floraconus norpothi (Lorenz, 2015) · non accepté</t>
